--- a/output/basic/solution_summary.xlsx
+++ b/output/basic/solution_summary.xlsx
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02304267883300781</v>
+        <v>0.2615716457366943</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-08-26 12:20:46</t>
+          <t>2025-08-26 12:37:40</t>
         </is>
       </c>
       <c r="N2" t="n">
